--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/HAWAII_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/HAWAII_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C5">
@@ -488,7 +488,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C9">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C29">
@@ -825,7 +825,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C33">
@@ -895,7 +895,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C38">
@@ -908,7 +908,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C39">
@@ -973,7 +973,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C44">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C47">
@@ -1030,7 +1030,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C48">
@@ -1100,7 +1100,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C53">
@@ -1113,7 +1113,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C54">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C58">
@@ -1274,7 +1274,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C66">
@@ -1287,7 +1287,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C67">
@@ -1313,7 +1313,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C69">
@@ -1326,7 +1326,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C70">
@@ -1352,7 +1352,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C72">
@@ -1417,7 +1417,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C77">
@@ -1653,7 +1653,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C94">
@@ -1751,7 +1751,7 @@
         <v>19</v>
       </c>
       <c r="D101">
-        <v>0.09595959595959595</v>
+        <v>0.09595959595959597</v>
       </c>
     </row>
     <row r="102">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C102">
@@ -1775,7 +1775,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C103">
@@ -1788,7 +1788,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C104">
@@ -1892,7 +1892,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C112">
@@ -1905,7 +1905,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C113">
@@ -2001,7 +2001,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C120">
@@ -2027,7 +2027,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C122">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C128">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C131">
@@ -2286,7 +2286,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C140">
@@ -2299,7 +2299,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C141">
@@ -2403,41 +2403,6 @@
       </c>
       <c r="D148">
         <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/HAWAII_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/HAWAII_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>León</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>El Limón</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Talpa De Allende</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Zapotlán Del Rey</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1472,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -1485,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Huaniqueo</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Marcos Castellanos</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1716,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1729,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1773,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -1786,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1799,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -1812,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>San Juan Atepec</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>San Pedro Teutila</t>
@@ -1851,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Santa María Yucuhiti</t>
@@ -1864,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1947,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -1960,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1973,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1986,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2121,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2165,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2178,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2209,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2240,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Imuris</t>
@@ -2253,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2284,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2297,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2310,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -2323,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2336,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2349,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2380,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
